--- a/Data/JH_DWA_Sprint-I_2.xlsx
+++ b/Data/JH_DWA_Sprint-I_2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWA Sprint\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA_Sprint\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C069D4D-812B-44D0-ABC1-2D49D18CD655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="288">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -261,12 +262,639 @@
   </si>
   <si>
     <t>Bollingstadt</t>
+  </si>
+  <si>
+    <t>I_2_0032</t>
+  </si>
+  <si>
+    <t>I_2_0033</t>
+  </si>
+  <si>
+    <t>I_2_0034</t>
+  </si>
+  <si>
+    <t>I_2_0035</t>
+  </si>
+  <si>
+    <t>I_2_0036</t>
+  </si>
+  <si>
+    <t>I_2_0037</t>
+  </si>
+  <si>
+    <t>I_2_0038</t>
+  </si>
+  <si>
+    <t>I_2_0039</t>
+  </si>
+  <si>
+    <t>I_2_0040</t>
+  </si>
+  <si>
+    <t>I_2_0041</t>
+  </si>
+  <si>
+    <t>I_2_0042</t>
+  </si>
+  <si>
+    <t>I_2_0043</t>
+  </si>
+  <si>
+    <t>I_2_0044</t>
+  </si>
+  <si>
+    <t>I_2_0045</t>
+  </si>
+  <si>
+    <t>I_2_0046</t>
+  </si>
+  <si>
+    <t>I_2_0047</t>
+  </si>
+  <si>
+    <t>I_2_0048</t>
+  </si>
+  <si>
+    <t>I_2_0049</t>
+  </si>
+  <si>
+    <t>I_2_0050</t>
+  </si>
+  <si>
+    <t>I_2_0051</t>
+  </si>
+  <si>
+    <t>I_2_0052</t>
+  </si>
+  <si>
+    <t>I_2_0053</t>
+  </si>
+  <si>
+    <t>I_2_0054</t>
+  </si>
+  <si>
+    <t>I_2_0055</t>
+  </si>
+  <si>
+    <t>I_2_0056</t>
+  </si>
+  <si>
+    <t>I_2_0057</t>
+  </si>
+  <si>
+    <t>I_2_0058</t>
+  </si>
+  <si>
+    <t>I_2_0059</t>
+  </si>
+  <si>
+    <t>I_2_0060</t>
+  </si>
+  <si>
+    <t>I_2_0061</t>
+  </si>
+  <si>
+    <t>I_2_0062</t>
+  </si>
+  <si>
+    <t>I_2_0063</t>
+  </si>
+  <si>
+    <t>I_2_0064</t>
+  </si>
+  <si>
+    <t>I_2_0065</t>
+  </si>
+  <si>
+    <t>I_2_0066</t>
+  </si>
+  <si>
+    <t>I_2_0067</t>
+  </si>
+  <si>
+    <t>I_2_0068</t>
+  </si>
+  <si>
+    <t>I_2_0069</t>
+  </si>
+  <si>
+    <t>I_2_0070</t>
+  </si>
+  <si>
+    <t>I_2_0071</t>
+  </si>
+  <si>
+    <t>I_2_0072</t>
+  </si>
+  <si>
+    <t>I_2_0073</t>
+  </si>
+  <si>
+    <t>I_2_0074</t>
+  </si>
+  <si>
+    <t>I_2_0075</t>
+  </si>
+  <si>
+    <t>I_2_0076</t>
+  </si>
+  <si>
+    <t>I_2_0077</t>
+  </si>
+  <si>
+    <t>I_2_0078</t>
+  </si>
+  <si>
+    <t>I_2_0079</t>
+  </si>
+  <si>
+    <t>I_2_0080</t>
+  </si>
+  <si>
+    <t>I_2_0081</t>
+  </si>
+  <si>
+    <t>I_2_0082</t>
+  </si>
+  <si>
+    <t>I_2_0083</t>
+  </si>
+  <si>
+    <t>I_2_0084</t>
+  </si>
+  <si>
+    <t>I_2_0085</t>
+  </si>
+  <si>
+    <t>I_2_0086</t>
+  </si>
+  <si>
+    <t>I_2_0087</t>
+  </si>
+  <si>
+    <t>I_2_0088</t>
+  </si>
+  <si>
+    <t>I_2_0089</t>
+  </si>
+  <si>
+    <t>I_2_0090</t>
+  </si>
+  <si>
+    <t>I_2_0091</t>
+  </si>
+  <si>
+    <t>I_2_0092</t>
+  </si>
+  <si>
+    <t>I_2_0093</t>
+  </si>
+  <si>
+    <t>I_2_0094</t>
+  </si>
+  <si>
+    <t>I_2_0095</t>
+  </si>
+  <si>
+    <t>I_2_0096</t>
+  </si>
+  <si>
+    <t>I_2_0097</t>
+  </si>
+  <si>
+    <t>I_2_0098</t>
+  </si>
+  <si>
+    <t>I_2_0099</t>
+  </si>
+  <si>
+    <t>I_2_0100</t>
+  </si>
+  <si>
+    <t>I_2_0101</t>
+  </si>
+  <si>
+    <t>I_2_0102</t>
+  </si>
+  <si>
+    <t>I_2_0103</t>
+  </si>
+  <si>
+    <t>I_2_0104</t>
+  </si>
+  <si>
+    <t>I_2_0105</t>
+  </si>
+  <si>
+    <t>I_2_0106</t>
+  </si>
+  <si>
+    <t>I_2_0107</t>
+  </si>
+  <si>
+    <t>I_2_0108</t>
+  </si>
+  <si>
+    <t>I_2_0109</t>
+  </si>
+  <si>
+    <t>I_2_0110</t>
+  </si>
+  <si>
+    <t>I_2_0111</t>
+  </si>
+  <si>
+    <t>I_2_0112</t>
+  </si>
+  <si>
+    <t>I_2_0113</t>
+  </si>
+  <si>
+    <t>I_2_0114</t>
+  </si>
+  <si>
+    <t>I_2_0115</t>
+  </si>
+  <si>
+    <t>Eggebek</t>
+  </si>
+  <si>
+    <t>Langstadt</t>
+  </si>
+  <si>
+    <t>Havetoft</t>
+  </si>
+  <si>
+    <t>Havetoftloit</t>
+  </si>
+  <si>
+    <t>Thumby</t>
+  </si>
+  <si>
+    <t>Struxdorf</t>
+  </si>
+  <si>
+    <t>Ülsby</t>
+  </si>
+  <si>
+    <t>Klappholz</t>
+  </si>
+  <si>
+    <t>Stolkersfeld</t>
+  </si>
+  <si>
+    <t>Stolk</t>
+  </si>
+  <si>
+    <t>Tolk</t>
+  </si>
+  <si>
+    <t>Böklund</t>
+  </si>
+  <si>
+    <t>Boelschuby</t>
+  </si>
+  <si>
+    <t>Böel</t>
+  </si>
+  <si>
+    <t>Norderbrarup</t>
+  </si>
+  <si>
+    <t>Süderbrarup</t>
+  </si>
+  <si>
+    <t>Brebel</t>
+  </si>
+  <si>
+    <t>Loit</t>
+  </si>
+  <si>
+    <t>Twedt</t>
+  </si>
+  <si>
+    <t>Steinfeld</t>
+  </si>
+  <si>
+    <t>Gunneby</t>
+  </si>
+  <si>
+    <t>Lindaumühlenholz</t>
+  </si>
+  <si>
+    <t>Boren</t>
+  </si>
+  <si>
+    <t>Rabenkirchen</t>
+  </si>
+  <si>
+    <t>Kappeln</t>
+  </si>
+  <si>
+    <t>Loitmark</t>
+  </si>
+  <si>
+    <t>Eckernförde</t>
+  </si>
+  <si>
+    <t>Olpenitz</t>
+  </si>
+  <si>
+    <t>Brodersby</t>
+  </si>
+  <si>
+    <t>Karby</t>
+  </si>
+  <si>
+    <t>Eckernförde (Schwansee)</t>
+  </si>
+  <si>
+    <t>Schuby</t>
+  </si>
+  <si>
+    <t>Winnemark</t>
+  </si>
+  <si>
+    <t>Grödersby</t>
+  </si>
+  <si>
+    <t>Faulück</t>
+  </si>
+  <si>
+    <t>Ekenis</t>
+  </si>
+  <si>
+    <t>Arnis</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Pellworm</t>
+  </si>
+  <si>
+    <t>am Schütting</t>
+  </si>
+  <si>
+    <t>Neue Kirche</t>
+  </si>
+  <si>
+    <t>Altendeich</t>
+  </si>
+  <si>
+    <t>Lundenberg</t>
+  </si>
+  <si>
+    <t>Schobüll</t>
+  </si>
+  <si>
+    <t>über Husum</t>
+  </si>
+  <si>
+    <t>Wobbenbull</t>
+  </si>
+  <si>
+    <t>Ahrenshöft</t>
+  </si>
+  <si>
+    <t>Hoxtrup</t>
+  </si>
+  <si>
+    <t>Olderup</t>
+  </si>
+  <si>
+    <t>Arlewatt</t>
+  </si>
+  <si>
+    <t>Hattstedt</t>
+  </si>
+  <si>
+    <t>Horstedt</t>
+  </si>
+  <si>
+    <t>Schwesing</t>
+  </si>
+  <si>
+    <t>Immenstedt</t>
+  </si>
+  <si>
+    <t>Viöl</t>
+  </si>
+  <si>
+    <t>Behrendorf</t>
+  </si>
+  <si>
+    <t>Sollerup</t>
+  </si>
+  <si>
+    <t>Wester-Ohrstedt</t>
+  </si>
+  <si>
+    <t>Oster-Ohrstedt</t>
+  </si>
+  <si>
+    <t>Ahrenviöl</t>
+  </si>
+  <si>
+    <t>Ahrenviölfeld</t>
+  </si>
+  <si>
+    <t>Treia</t>
+  </si>
+  <si>
+    <t>Esperstoß</t>
+  </si>
+  <si>
+    <t>Bondelum</t>
+  </si>
+  <si>
+    <t>Friedrichsau</t>
+  </si>
+  <si>
+    <t>Silberstedt</t>
+  </si>
+  <si>
+    <t>Friedrichsfeld</t>
+  </si>
+  <si>
+    <t>Hüsby</t>
+  </si>
+  <si>
+    <t>Lürschau</t>
+  </si>
+  <si>
+    <t>Gammellund</t>
+  </si>
+  <si>
+    <t>Nauberand</t>
+  </si>
+  <si>
+    <t>Nübel</t>
+  </si>
+  <si>
+    <t>Moldenit</t>
+  </si>
+  <si>
+    <t>Busdorf</t>
+  </si>
+  <si>
+    <t>Fahrdorf</t>
+  </si>
+  <si>
+    <t>Borgwedel</t>
+  </si>
+  <si>
+    <t>Taarstedt</t>
+  </si>
+  <si>
+    <t>Scholderup</t>
+  </si>
+  <si>
+    <t>Ulsnis</t>
+  </si>
+  <si>
+    <t>Missunde</t>
+  </si>
+  <si>
+    <t>Kosel</t>
+  </si>
+  <si>
+    <t>Gammelby</t>
+  </si>
+  <si>
+    <t>Bohnert</t>
+  </si>
+  <si>
+    <t>Rieseby</t>
+  </si>
+  <si>
+    <t>Zimmert</t>
+  </si>
+  <si>
+    <t>Seeholz</t>
+  </si>
+  <si>
+    <t>I_2_0116</t>
+  </si>
+  <si>
+    <t>I_2_0117</t>
+  </si>
+  <si>
+    <t>I_2_0118</t>
+  </si>
+  <si>
+    <t>I_2_0119</t>
+  </si>
+  <si>
+    <t>I_2_0120</t>
+  </si>
+  <si>
+    <t>I_2_0121</t>
+  </si>
+  <si>
+    <t>I_2_0122</t>
+  </si>
+  <si>
+    <t>I_2_0123</t>
+  </si>
+  <si>
+    <t>I_2_0124</t>
+  </si>
+  <si>
+    <t>I_2_0125</t>
+  </si>
+  <si>
+    <t>I_2_0126</t>
+  </si>
+  <si>
+    <t>Damp</t>
+  </si>
+  <si>
+    <t>I_2_0127</t>
+  </si>
+  <si>
+    <t>I_2_0128</t>
+  </si>
+  <si>
+    <t>I_2_0129</t>
+  </si>
+  <si>
+    <t>I_2_0130</t>
+  </si>
+  <si>
+    <t>I_2_0131</t>
+  </si>
+  <si>
+    <t>I_2_0132</t>
+  </si>
+  <si>
+    <t>Groß-Waabs</t>
+  </si>
+  <si>
+    <t>Klein-Waabs</t>
+  </si>
+  <si>
+    <t>Langholz</t>
+  </si>
+  <si>
+    <t>Loose</t>
+  </si>
+  <si>
+    <t>Barkelsby</t>
+  </si>
+  <si>
+    <t>Westermarkelsdorf</t>
+  </si>
+  <si>
+    <t>falsch einsortiert?</t>
+  </si>
+  <si>
+    <t>Wenkendorf</t>
+  </si>
+  <si>
+    <t>Oldenburg i. Holstein</t>
+  </si>
+  <si>
+    <t>Schlagsdorf</t>
+  </si>
+  <si>
+    <t>Oldenburg</t>
+  </si>
+  <si>
+    <t>Dänschendorf</t>
+  </si>
+  <si>
+    <t>Fehmm.</t>
+  </si>
+  <si>
+    <t>Gammendorf</t>
+  </si>
+  <si>
+    <t>Insel Fehmarn</t>
+  </si>
+  <si>
+    <t>Puttgarden</t>
+  </si>
+  <si>
+    <t>Soph. Magd. Koog</t>
+  </si>
+  <si>
+    <t>Kollund</t>
+  </si>
+  <si>
+    <t>Idstedt</t>
+  </si>
+  <si>
+    <t>Sieseby</t>
+  </si>
+  <si>
+    <t>Hallig Hooge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +947,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,14 +1258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M124" sqref="M124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
@@ -1577,6 +2205,2938 @@
         <v>48</v>
       </c>
     </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33">
+        <v>999</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34">
+        <v>999</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35">
+        <v>999</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36">
+        <v>999</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37">
+        <v>999</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38">
+        <v>999</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39">
+        <v>999</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40">
+        <v>999</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42">
+        <v>999</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43">
+        <v>999</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44">
+        <v>999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45">
+        <v>999</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46">
+        <v>999</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47">
+        <v>999</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48">
+        <v>999</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49">
+        <v>999</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50">
+        <v>999</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G51">
+        <v>999</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52">
+        <v>999</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53">
+        <v>25</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53">
+        <v>999</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
+        <v>185</v>
+      </c>
+      <c r="G54">
+        <v>999</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" t="s">
+        <v>186</v>
+      </c>
+      <c r="G55">
+        <v>999</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G56">
+        <v>999</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57">
+        <v>999</v>
+      </c>
+      <c r="H57" t="s">
+        <v>189</v>
+      </c>
+      <c r="I57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58">
+        <v>999</v>
+      </c>
+      <c r="H58" t="s">
+        <v>189</v>
+      </c>
+      <c r="I58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59">
+        <v>999</v>
+      </c>
+      <c r="H59" t="s">
+        <v>189</v>
+      </c>
+      <c r="I59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60">
+        <v>999</v>
+      </c>
+      <c r="H60" t="s">
+        <v>193</v>
+      </c>
+      <c r="I60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61">
+        <v>999</v>
+      </c>
+      <c r="H61" t="s">
+        <v>189</v>
+      </c>
+      <c r="I61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62">
+        <v>999</v>
+      </c>
+      <c r="H62" t="s">
+        <v>189</v>
+      </c>
+      <c r="I62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63">
+        <v>999</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64">
+        <v>26</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64">
+        <v>999</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65">
+        <v>26</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" t="s">
+        <v>198</v>
+      </c>
+      <c r="G65">
+        <v>999</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66">
+        <v>26</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" t="s">
+        <v>199</v>
+      </c>
+      <c r="G66">
+        <v>999</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" t="s">
+        <v>201</v>
+      </c>
+      <c r="G67">
+        <v>999</v>
+      </c>
+      <c r="H67" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" t="s">
+        <v>201</v>
+      </c>
+      <c r="G68" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68" t="s">
+        <v>51</v>
+      </c>
+      <c r="I68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69">
+        <v>18</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" t="s">
+        <v>201</v>
+      </c>
+      <c r="G69" t="s">
+        <v>203</v>
+      </c>
+      <c r="H69" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" t="s">
+        <v>204</v>
+      </c>
+      <c r="G70">
+        <v>999</v>
+      </c>
+      <c r="H70" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" t="s">
+        <v>205</v>
+      </c>
+      <c r="G71">
+        <v>999</v>
+      </c>
+      <c r="H71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" t="s">
+        <v>206</v>
+      </c>
+      <c r="G72" t="s">
+        <v>207</v>
+      </c>
+      <c r="H72" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" t="s">
+        <v>208</v>
+      </c>
+      <c r="G73">
+        <v>999</v>
+      </c>
+      <c r="H73" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" t="s">
+        <v>209</v>
+      </c>
+      <c r="G74">
+        <v>999</v>
+      </c>
+      <c r="H74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75">
+        <v>21</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" t="s">
+        <v>210</v>
+      </c>
+      <c r="G75">
+        <v>999</v>
+      </c>
+      <c r="H75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76">
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" t="s">
+        <v>211</v>
+      </c>
+      <c r="G76">
+        <v>999</v>
+      </c>
+      <c r="H76" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77">
+        <v>999</v>
+      </c>
+      <c r="H77" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78">
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" t="s">
+        <v>213</v>
+      </c>
+      <c r="G78">
+        <v>999</v>
+      </c>
+      <c r="H78" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79">
+        <v>21</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79">
+        <v>999</v>
+      </c>
+      <c r="H79" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" t="s">
+        <v>215</v>
+      </c>
+      <c r="G80">
+        <v>999</v>
+      </c>
+      <c r="H80" t="s">
+        <v>51</v>
+      </c>
+      <c r="I80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81">
+        <v>21</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>127</v>
+      </c>
+      <c r="F81" t="s">
+        <v>216</v>
+      </c>
+      <c r="G81">
+        <v>999</v>
+      </c>
+      <c r="H81" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82">
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" t="s">
+        <v>217</v>
+      </c>
+      <c r="G82">
+        <v>999</v>
+      </c>
+      <c r="H82" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83" t="s">
+        <v>218</v>
+      </c>
+      <c r="G83">
+        <v>999</v>
+      </c>
+      <c r="H83" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84">
+        <v>22</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>130</v>
+      </c>
+      <c r="F84" t="s">
+        <v>219</v>
+      </c>
+      <c r="G84">
+        <v>999</v>
+      </c>
+      <c r="H84" t="s">
+        <v>70</v>
+      </c>
+      <c r="I84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" t="s">
+        <v>220</v>
+      </c>
+      <c r="G85">
+        <v>999</v>
+      </c>
+      <c r="H85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>132</v>
+      </c>
+      <c r="F86" t="s">
+        <v>221</v>
+      </c>
+      <c r="G86">
+        <v>999</v>
+      </c>
+      <c r="H86" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>133</v>
+      </c>
+      <c r="F87" t="s">
+        <v>222</v>
+      </c>
+      <c r="G87">
+        <v>999</v>
+      </c>
+      <c r="H87" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88" t="s">
+        <v>223</v>
+      </c>
+      <c r="G88">
+        <v>999</v>
+      </c>
+      <c r="H88" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>135</v>
+      </c>
+      <c r="F89" t="s">
+        <v>224</v>
+      </c>
+      <c r="G89">
+        <v>999</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90">
+        <v>22</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" t="s">
+        <v>225</v>
+      </c>
+      <c r="G90">
+        <v>999</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>137</v>
+      </c>
+      <c r="F91" t="s">
+        <v>226</v>
+      </c>
+      <c r="G91">
+        <v>999</v>
+      </c>
+      <c r="H91" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92">
+        <v>22</v>
+      </c>
+      <c r="D92">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" t="s">
+        <v>227</v>
+      </c>
+      <c r="G92">
+        <v>999</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93">
+        <v>23</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" t="s">
+        <v>228</v>
+      </c>
+      <c r="G93">
+        <v>999</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94">
+        <v>23</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>140</v>
+      </c>
+      <c r="F94" t="s">
+        <v>229</v>
+      </c>
+      <c r="G94">
+        <v>999</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95">
+        <v>23</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" t="s">
+        <v>230</v>
+      </c>
+      <c r="G95">
+        <v>999</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96">
+        <v>23</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" t="s">
+        <v>194</v>
+      </c>
+      <c r="G96">
+        <v>999</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97">
+        <v>23</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" t="s">
+        <v>231</v>
+      </c>
+      <c r="G97">
+        <v>999</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98">
+        <v>23</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>144</v>
+      </c>
+      <c r="F98" t="s">
+        <v>232</v>
+      </c>
+      <c r="G98">
+        <v>999</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99">
+        <v>24</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" t="s">
+        <v>233</v>
+      </c>
+      <c r="G99">
+        <v>999</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100">
+        <v>24</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>146</v>
+      </c>
+      <c r="F100" t="s">
+        <v>234</v>
+      </c>
+      <c r="G100">
+        <v>999</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101">
+        <v>24</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>147</v>
+      </c>
+      <c r="F101" t="s">
+        <v>235</v>
+      </c>
+      <c r="G101">
+        <v>999</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102">
+        <v>24</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>148</v>
+      </c>
+      <c r="F102" t="s">
+        <v>236</v>
+      </c>
+      <c r="G102">
+        <v>999</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103">
+        <v>24</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103">
+        <v>999</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104">
+        <v>24</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>150</v>
+      </c>
+      <c r="F104" t="s">
+        <v>237</v>
+      </c>
+      <c r="G104">
+        <v>999</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105">
+        <v>24</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>151</v>
+      </c>
+      <c r="F105" t="s">
+        <v>238</v>
+      </c>
+      <c r="G105">
+        <v>999</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106">
+        <v>25</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>152</v>
+      </c>
+      <c r="F106" t="s">
+        <v>239</v>
+      </c>
+      <c r="G106">
+        <v>999</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107">
+        <v>25</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>153</v>
+      </c>
+      <c r="F107" t="s">
+        <v>240</v>
+      </c>
+      <c r="G107">
+        <v>999</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108">
+        <v>25</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>154</v>
+      </c>
+      <c r="F108" t="s">
+        <v>241</v>
+      </c>
+      <c r="G108">
+        <v>999</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109">
+        <v>25</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109" t="s">
+        <v>155</v>
+      </c>
+      <c r="F109" t="s">
+        <v>191</v>
+      </c>
+      <c r="G109">
+        <v>999</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110">
+        <v>25</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>156</v>
+      </c>
+      <c r="F110" t="s">
+        <v>242</v>
+      </c>
+      <c r="G110">
+        <v>999</v>
+      </c>
+      <c r="H110" t="s">
+        <v>189</v>
+      </c>
+      <c r="I110" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111">
+        <v>25</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>157</v>
+      </c>
+      <c r="F111" t="s">
+        <v>243</v>
+      </c>
+      <c r="G111">
+        <v>999</v>
+      </c>
+      <c r="H111" t="s">
+        <v>189</v>
+      </c>
+      <c r="I111" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112">
+        <v>25</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>158</v>
+      </c>
+      <c r="F112" t="s">
+        <v>244</v>
+      </c>
+      <c r="G112">
+        <v>999</v>
+      </c>
+      <c r="H112" t="s">
+        <v>189</v>
+      </c>
+      <c r="I112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113">
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>159</v>
+      </c>
+      <c r="F113" t="s">
+        <v>245</v>
+      </c>
+      <c r="G113">
+        <v>999</v>
+      </c>
+      <c r="H113" t="s">
+        <v>189</v>
+      </c>
+      <c r="I113" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114">
+        <v>25</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>160</v>
+      </c>
+      <c r="F114" t="s">
+        <v>246</v>
+      </c>
+      <c r="G114">
+        <v>999</v>
+      </c>
+      <c r="H114" t="s">
+        <v>189</v>
+      </c>
+      <c r="I114" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115">
+        <v>26</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>161</v>
+      </c>
+      <c r="F115" t="s">
+        <v>247</v>
+      </c>
+      <c r="G115">
+        <v>999</v>
+      </c>
+      <c r="H115" t="s">
+        <v>189</v>
+      </c>
+      <c r="I115" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116">
+        <v>26</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>162</v>
+      </c>
+      <c r="F116" t="s">
+        <v>248</v>
+      </c>
+      <c r="G116">
+        <v>999</v>
+      </c>
+      <c r="H116" t="s">
+        <v>189</v>
+      </c>
+      <c r="I116" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117">
+        <v>26</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>249</v>
+      </c>
+      <c r="F117" t="s">
+        <v>260</v>
+      </c>
+      <c r="G117">
+        <v>999</v>
+      </c>
+      <c r="H117" t="s">
+        <v>189</v>
+      </c>
+      <c r="I117" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118">
+        <v>26</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>250</v>
+      </c>
+      <c r="F118" t="s">
+        <v>267</v>
+      </c>
+      <c r="G118">
+        <v>999</v>
+      </c>
+      <c r="H118" t="s">
+        <v>189</v>
+      </c>
+      <c r="I118" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>200</v>
+      </c>
+      <c r="C119">
+        <v>26</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>251</v>
+      </c>
+      <c r="F119" t="s">
+        <v>268</v>
+      </c>
+      <c r="G119">
+        <v>999</v>
+      </c>
+      <c r="H119" t="s">
+        <v>189</v>
+      </c>
+      <c r="I119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>200</v>
+      </c>
+      <c r="C120">
+        <v>26</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>252</v>
+      </c>
+      <c r="F120" t="s">
+        <v>269</v>
+      </c>
+      <c r="G120">
+        <v>999</v>
+      </c>
+      <c r="H120" t="s">
+        <v>189</v>
+      </c>
+      <c r="I120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121">
+        <v>26</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>253</v>
+      </c>
+      <c r="F121" t="s">
+        <v>270</v>
+      </c>
+      <c r="G121">
+        <v>999</v>
+      </c>
+      <c r="H121" t="s">
+        <v>189</v>
+      </c>
+      <c r="I121" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>200</v>
+      </c>
+      <c r="C122">
+        <v>26</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>254</v>
+      </c>
+      <c r="F122" t="s">
+        <v>271</v>
+      </c>
+      <c r="G122">
+        <v>999</v>
+      </c>
+      <c r="H122" t="s">
+        <v>189</v>
+      </c>
+      <c r="I122" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123">
+        <v>33</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>255</v>
+      </c>
+      <c r="F123" t="s">
+        <v>272</v>
+      </c>
+      <c r="G123">
+        <v>999</v>
+      </c>
+      <c r="H123" t="s">
+        <v>275</v>
+      </c>
+      <c r="I123" t="s">
+        <v>48</v>
+      </c>
+      <c r="J123" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124">
+        <v>33</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>256</v>
+      </c>
+      <c r="F124" t="s">
+        <v>274</v>
+      </c>
+      <c r="G124">
+        <v>999</v>
+      </c>
+      <c r="H124" t="s">
+        <v>275</v>
+      </c>
+      <c r="I124" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>200</v>
+      </c>
+      <c r="C125">
+        <v>33</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>257</v>
+      </c>
+      <c r="F125" t="s">
+        <v>276</v>
+      </c>
+      <c r="G125">
+        <v>999</v>
+      </c>
+      <c r="H125" t="s">
+        <v>277</v>
+      </c>
+      <c r="I125" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126">
+        <v>33</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>258</v>
+      </c>
+      <c r="F126" t="s">
+        <v>278</v>
+      </c>
+      <c r="G126" t="s">
+        <v>279</v>
+      </c>
+      <c r="H126" t="s">
+        <v>277</v>
+      </c>
+      <c r="I126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>200</v>
+      </c>
+      <c r="C127">
+        <v>33</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>259</v>
+      </c>
+      <c r="F127" t="s">
+        <v>280</v>
+      </c>
+      <c r="G127" t="s">
+        <v>281</v>
+      </c>
+      <c r="H127" t="s">
+        <v>275</v>
+      </c>
+      <c r="I127" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128">
+        <v>33</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>261</v>
+      </c>
+      <c r="F128" t="s">
+        <v>282</v>
+      </c>
+      <c r="G128">
+        <v>999</v>
+      </c>
+      <c r="H128" t="s">
+        <v>277</v>
+      </c>
+      <c r="I128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129" t="s">
+        <v>262</v>
+      </c>
+      <c r="F129" t="s">
+        <v>283</v>
+      </c>
+      <c r="G129">
+        <v>999</v>
+      </c>
+      <c r="H129" t="s">
+        <v>51</v>
+      </c>
+      <c r="I129" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130">
+        <v>22</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>263</v>
+      </c>
+      <c r="F130" t="s">
+        <v>284</v>
+      </c>
+      <c r="G130">
+        <v>999</v>
+      </c>
+      <c r="H130" t="s">
+        <v>51</v>
+      </c>
+      <c r="I130" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131">
+        <v>24</v>
+      </c>
+      <c r="D131">
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>264</v>
+      </c>
+      <c r="F131" t="s">
+        <v>285</v>
+      </c>
+      <c r="G131">
+        <v>999</v>
+      </c>
+      <c r="H131" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132">
+        <v>26</v>
+      </c>
+      <c r="D132">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>265</v>
+      </c>
+      <c r="F132" t="s">
+        <v>286</v>
+      </c>
+      <c r="G132">
+        <v>999</v>
+      </c>
+      <c r="H132" t="s">
+        <v>189</v>
+      </c>
+      <c r="I132" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>200</v>
+      </c>
+      <c r="C133">
+        <v>18</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>266</v>
+      </c>
+      <c r="F133" t="s">
+        <v>287</v>
+      </c>
+      <c r="G133">
+        <v>999</v>
+      </c>
+      <c r="H133" t="s">
+        <v>51</v>
+      </c>
+      <c r="I133" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
